--- a/carga/CONVERSIÓN 2022.xlsx
+++ b/carga/CONVERSIÓN 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORNELA\Documents\BARLOVENTO SRL\ANALISIS INFORMACIÓN GANADERA BASE DATOS\CONVERSIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8E3FF-1BA3-4040-9899-28BEF8432ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437A2D0F-BB1E-433F-9F2E-08B946922910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F7186F9-6F66-4B1E-BD47-49D29253A08F}"/>
   </bookViews>
@@ -19,6 +19,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -699,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F73D16-2278-4A22-8074-048BCA5C9DF4}">
-  <dimension ref="A1:XFB19"/>
+  <dimension ref="A1:XFB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +997,7 @@
         <v>300.58484848484846</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N17" si="3">M7-L7</f>
+        <f t="shared" ref="N7:N16" si="3">M7-L7</f>
         <v>62.908080808080797</v>
       </c>
       <c r="O7" s="16">
@@ -1005,7 +1013,7 @@
         <v>1.3963636363636365</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" ref="T7:T17" si="4">W7/X7</f>
+        <f t="shared" ref="T7:T16" si="4">W7/X7</f>
         <v>99.507347078254853</v>
       </c>
       <c r="U7" s="16">
@@ -1015,7 +1023,7 @@
         <v>349.19636363636363</v>
       </c>
       <c r="W7" s="16">
-        <f t="shared" ref="W7:W17" si="5">V7-U7</f>
+        <f t="shared" ref="W7:W16" si="5">V7-U7</f>
         <v>127.06545454545454</v>
       </c>
       <c r="X7" s="16">
@@ -1031,7 +1039,7 @@
         <v>1.0117647058823529</v>
       </c>
       <c r="AC7" s="16">
-        <f t="shared" ref="AC7:AC17" si="6">AF7/AG7</f>
+        <f t="shared" ref="AC7:AC15" si="6">AF7/AG7</f>
         <v>137.52508195092867</v>
       </c>
       <c r="AD7" s="16">
@@ -1041,7 +1049,7 @@
         <v>371.01941176470569</v>
       </c>
       <c r="AF7" s="16">
-        <f t="shared" ref="AF7:AF17" si="7">AE7-AD7</f>
+        <f t="shared" ref="AF7:AF15" si="7">AE7-AD7</f>
         <v>162.87823529411745</v>
       </c>
       <c r="AG7" s="16">
@@ -1775,7 +1783,7 @@
         <v>18.884414414414415</v>
       </c>
     </row>
-    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>180.398006700167</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" ref="F16:F17" si="8">E16/G16</f>
+        <f t="shared" ref="F16" si="8">E16/G16</f>
         <v>154.08385214862625</v>
       </c>
       <c r="G16" s="16">
@@ -1956,32 +1964,9 @@
         <v>18.278696969696991</v>
       </c>
       <c r="AA16"/>
-      <c r="AB16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="16">
-        <f t="shared" si="6"/>
-        <v>150.63636363636365</v>
-      </c>
-      <c r="AD16" s="16">
-        <v>223.59</v>
-      </c>
-      <c r="AE16" s="16">
-        <v>405.86</v>
-      </c>
-      <c r="AF16" s="16">
-        <f t="shared" si="7"/>
-        <v>182.27</v>
-      </c>
-      <c r="AG16" s="16">
-        <v>1.21</v>
-      </c>
-      <c r="AH16" s="16">
-        <v>6.66</v>
-      </c>
-      <c r="AI16" s="16">
-        <v>18.920000000000002</v>
-      </c>
+      <c r="AB16" s="15"/>
+      <c r="AF16" s="17"/>
+      <c r="AI16"/>
       <c r="AP16" s="18"/>
       <c r="AR16"/>
       <c r="BA16"/>
@@ -5759,103 +5744,40 @@
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16">
-        <v>223.88</v>
-      </c>
-      <c r="D17" s="16">
-        <v>371.7</v>
-      </c>
-      <c r="E17" s="16">
-        <v>147.82</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="8"/>
-        <v>124.21848739495799</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1.19</v>
-      </c>
-      <c r="H17" s="16">
-        <v>6.43</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1.34</v>
-      </c>
-      <c r="K17" s="16">
-        <f>N17/O17</f>
-        <v>88.620689655172427</v>
-      </c>
-      <c r="L17" s="16">
-        <v>239.53</v>
-      </c>
-      <c r="M17" s="16">
-        <v>290.93</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="3"/>
-        <v>51.400000000000006</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0.57999999999999996</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
       <c r="P17" s="18">
         <v>0</v>
       </c>
       <c r="Q17" s="16">
         <v>0</v>
       </c>
-      <c r="S17" s="16">
-        <v>1.31</v>
-      </c>
-      <c r="T17" s="16">
-        <f t="shared" si="4"/>
-        <v>106.55999999999999</v>
-      </c>
-      <c r="U17" s="16">
-        <v>218.5</v>
-      </c>
-      <c r="V17" s="16">
-        <v>351.7</v>
-      </c>
-      <c r="W17" s="16">
-        <f t="shared" si="5"/>
-        <v>133.19999999999999</v>
-      </c>
-      <c r="X17" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>6.31</v>
-      </c>
-      <c r="Z17" s="16">
-        <v>20.13</v>
-      </c>
-      <c r="AB17" s="16">
-        <v>1.02</v>
-      </c>
-      <c r="AC17" s="16">
-        <f t="shared" si="6"/>
-        <v>142.97540983606561</v>
-      </c>
-      <c r="AD17" s="16">
-        <v>235.48</v>
-      </c>
-      <c r="AE17" s="16">
-        <v>409.91</v>
-      </c>
-      <c r="AF17" s="16">
-        <f t="shared" si="7"/>
-        <v>174.43000000000004</v>
-      </c>
-      <c r="AG17" s="16">
-        <v>1.22</v>
-      </c>
-      <c r="AH17" s="16">
-        <v>6.69</v>
-      </c>
-      <c r="AI17" s="16">
-        <v>19.350000000000001</v>
-      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
@@ -5863,52 +5785,52 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C6:C17)</f>
-        <v>208.79217269968743</v>
+        <v>207.42055203602266</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:AI19" si="9">AVERAGE(D6:D17)</f>
-        <v>360.76514606701738</v>
+        <v>359.77106843674619</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="9"/>
-        <v>153.6279783406882</v>
+        <v>154.15597637165985</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="9"/>
-        <v>144.85176422496679</v>
+        <v>146.7275166640585</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(G6:G17)</f>
-        <v>1.0690693924980521</v>
+        <v>1.0580757009069659</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="9"/>
-        <v>6.8679764274487241</v>
+        <v>6.9077924663076997</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
         <f t="shared" si="9"/>
-        <v>1.1415091790638712</v>
+        <v>1.1234645589787684</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="9"/>
-        <v>131.43755119101701</v>
+        <v>135.32999314882107</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="9"/>
-        <v>226.70059134531763</v>
+        <v>225.53428146761919</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="9"/>
-        <v>288.12647397746156</v>
+        <v>287.87160797541259</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="9"/>
-        <v>61.425882632143946</v>
+        <v>62.337326507793392</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="9"/>
-        <v>0.48111515645737057</v>
+        <v>0.47212562522622242</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="9"/>
@@ -5921,70 +5843,73 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1">
         <f>AVERAGE(S6:S17)</f>
-        <v>1.4885125297741324</v>
+        <v>1.504740941571781</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="9"/>
-        <v>112.09279399317403</v>
+        <v>112.59577526528075</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="9"/>
-        <v>207.38949340929443</v>
+        <v>206.37944735559392</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="9"/>
-        <v>341.93035904390354</v>
+        <v>341.04220986607658</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="9"/>
-        <v>134.54086563460908</v>
+        <v>134.66276251048262</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="9"/>
-        <v>1.2024713282698942</v>
+        <v>1.1981505399307937</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="9"/>
-        <v>6.7815460824551863</v>
+        <v>6.8244139081329305</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="9"/>
-        <v>15.740871688249859</v>
+        <v>15.341860023545301</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1">
         <f t="shared" si="9"/>
-        <v>1.0089130040493568</v>
+        <v>1.0086956048592284</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="9"/>
-        <v>143.28883479893258</v>
+        <v>142.58542441147614</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="9"/>
-        <v>221.56191221008615</v>
+        <v>219.96729465210336</v>
       </c>
       <c r="AE19" s="1">
         <f t="shared" si="9"/>
-        <v>389.94215895071335</v>
+        <v>386.35359074085602</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" si="9"/>
-        <v>168.38024674062723</v>
+        <v>166.38629608875266</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="9"/>
-        <v>1.1750847388551848</v>
+        <v>1.1671016866262218</v>
       </c>
       <c r="AH19" s="1">
         <f t="shared" si="9"/>
-        <v>7.1036590776480368</v>
+        <v>7.1893908931776451</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="9"/>
-        <v>17.143611092703402</v>
+        <v>16.745333311244082</v>
       </c>
     </row>
+    <row r="22" spans="2:35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:35" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C4:H4"/>

--- a/carga/CONVERSIÓN 2022.xlsx
+++ b/carga/CONVERSIÓN 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORNELA\Documents\BARLOVENTO SRL\ANALISIS INFORMACIÓN GANADERA BASE DATOS\CONVERSIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437A2D0F-BB1E-433F-9F2E-08B946922910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8E3FF-1BA3-4040-9899-28BEF8432ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F7186F9-6F66-4B1E-BD47-49D29253A08F}"/>
   </bookViews>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -707,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F73D16-2278-4A22-8074-048BCA5C9DF4}">
-  <dimension ref="A1:XFB24"/>
+  <dimension ref="A1:XFB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +989,7 @@
         <v>300.58484848484846</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N16" si="3">M7-L7</f>
+        <f t="shared" ref="N7:N17" si="3">M7-L7</f>
         <v>62.908080808080797</v>
       </c>
       <c r="O7" s="16">
@@ -1013,7 +1005,7 @@
         <v>1.3963636363636365</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" ref="T7:T16" si="4">W7/X7</f>
+        <f t="shared" ref="T7:T17" si="4">W7/X7</f>
         <v>99.507347078254853</v>
       </c>
       <c r="U7" s="16">
@@ -1023,7 +1015,7 @@
         <v>349.19636363636363</v>
       </c>
       <c r="W7" s="16">
-        <f t="shared" ref="W7:W16" si="5">V7-U7</f>
+        <f t="shared" ref="W7:W17" si="5">V7-U7</f>
         <v>127.06545454545454</v>
       </c>
       <c r="X7" s="16">
@@ -1039,7 +1031,7 @@
         <v>1.0117647058823529</v>
       </c>
       <c r="AC7" s="16">
-        <f t="shared" ref="AC7:AC15" si="6">AF7/AG7</f>
+        <f t="shared" ref="AC7:AC17" si="6">AF7/AG7</f>
         <v>137.52508195092867</v>
       </c>
       <c r="AD7" s="16">
@@ -1049,7 +1041,7 @@
         <v>371.01941176470569</v>
       </c>
       <c r="AF7" s="16">
-        <f t="shared" ref="AF7:AF15" si="7">AE7-AD7</f>
+        <f t="shared" ref="AF7:AF17" si="7">AE7-AD7</f>
         <v>162.87823529411745</v>
       </c>
       <c r="AG7" s="16">
@@ -1783,7 +1775,7 @@
         <v>18.884414414414415</v>
       </c>
     </row>
-    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1023 1030:2046 2055:3070 3074:4091 4098:5114 5123:6142 6145:7168 7177:8192 8196:9213 9220:10236 10245:11264 11267:12288 12290:13304 13313:14335 14342:15358 15367:16382" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
@@ -1900,7 +1892,7 @@
         <v>180.398006700167</v>
       </c>
       <c r="F16" s="17">
-        <f t="shared" ref="F16" si="8">E16/G16</f>
+        <f t="shared" ref="F16:F17" si="8">E16/G16</f>
         <v>154.08385214862625</v>
       </c>
       <c r="G16" s="16">
@@ -1964,9 +1956,32 @@
         <v>18.278696969696991</v>
       </c>
       <c r="AA16"/>
-      <c r="AB16" s="15"/>
-      <c r="AF16" s="17"/>
-      <c r="AI16"/>
+      <c r="AB16" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="16">
+        <f t="shared" si="6"/>
+        <v>150.63636363636365</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>223.59</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>405.86</v>
+      </c>
+      <c r="AF16" s="16">
+        <f t="shared" si="7"/>
+        <v>182.27</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>1.21</v>
+      </c>
+      <c r="AH16" s="16">
+        <v>6.66</v>
+      </c>
+      <c r="AI16" s="16">
+        <v>18.920000000000002</v>
+      </c>
       <c r="AP16" s="18"/>
       <c r="AR16"/>
       <c r="BA16"/>
@@ -5744,40 +5759,103 @@
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="C17" s="16">
+        <v>223.88</v>
+      </c>
+      <c r="D17" s="16">
+        <v>371.7</v>
+      </c>
+      <c r="E17" s="16">
+        <v>147.82</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="8"/>
+        <v>124.21848739495799</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="H17" s="16">
+        <v>6.43</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="K17" s="16">
+        <f>N17/O17</f>
+        <v>88.620689655172427</v>
+      </c>
+      <c r="L17" s="16">
+        <v>239.53</v>
+      </c>
+      <c r="M17" s="16">
+        <v>290.93</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="3"/>
+        <v>51.400000000000006</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="P17" s="18">
         <v>0</v>
       </c>
       <c r="Q17" s="16">
         <v>0</v>
       </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
+      <c r="S17" s="16">
+        <v>1.31</v>
+      </c>
+      <c r="T17" s="16">
+        <f t="shared" si="4"/>
+        <v>106.55999999999999</v>
+      </c>
+      <c r="U17" s="16">
+        <v>218.5</v>
+      </c>
+      <c r="V17" s="16">
+        <v>351.7</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="5"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="X17" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>6.31</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>20.13</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="6"/>
+        <v>142.97540983606561</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>235.48</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>409.91</v>
+      </c>
+      <c r="AF17" s="16">
+        <f t="shared" si="7"/>
+        <v>174.43000000000004</v>
+      </c>
+      <c r="AG17" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="AH17" s="16">
+        <v>6.69</v>
+      </c>
+      <c r="AI17" s="16">
+        <v>19.350000000000001</v>
+      </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
@@ -5785,52 +5863,52 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C6:C17)</f>
-        <v>207.42055203602266</v>
+        <v>208.79217269968743</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:AI19" si="9">AVERAGE(D6:D17)</f>
-        <v>359.77106843674619</v>
+        <v>360.76514606701738</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="9"/>
-        <v>154.15597637165985</v>
+        <v>153.6279783406882</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="9"/>
-        <v>146.7275166640585</v>
+        <v>144.85176422496679</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(G6:G17)</f>
-        <v>1.0580757009069659</v>
+        <v>1.0690693924980521</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="9"/>
-        <v>6.9077924663076997</v>
+        <v>6.8679764274487241</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
         <f t="shared" si="9"/>
-        <v>1.1234645589787684</v>
+        <v>1.1415091790638712</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="9"/>
-        <v>135.32999314882107</v>
+        <v>131.43755119101701</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="9"/>
-        <v>225.53428146761919</v>
+        <v>226.70059134531763</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="9"/>
-        <v>287.87160797541259</v>
+        <v>288.12647397746156</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="9"/>
-        <v>62.337326507793392</v>
+        <v>61.425882632143946</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="9"/>
-        <v>0.47212562522622242</v>
+        <v>0.48111515645737057</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="9"/>
@@ -5843,73 +5921,70 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1">
         <f>AVERAGE(S6:S17)</f>
-        <v>1.504740941571781</v>
+        <v>1.4885125297741324</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="9"/>
-        <v>112.59577526528075</v>
+        <v>112.09279399317403</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="9"/>
-        <v>206.37944735559392</v>
+        <v>207.38949340929443</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="9"/>
-        <v>341.04220986607658</v>
+        <v>341.93035904390354</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="9"/>
-        <v>134.66276251048262</v>
+        <v>134.54086563460908</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="9"/>
-        <v>1.1981505399307937</v>
+        <v>1.2024713282698942</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="9"/>
-        <v>6.8244139081329305</v>
+        <v>6.7815460824551863</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="9"/>
-        <v>15.341860023545301</v>
+        <v>15.740871688249859</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1">
         <f t="shared" si="9"/>
-        <v>1.0086956048592284</v>
+        <v>1.0089130040493568</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="9"/>
-        <v>142.58542441147614</v>
+        <v>143.28883479893258</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="9"/>
-        <v>219.96729465210336</v>
+        <v>221.56191221008615</v>
       </c>
       <c r="AE19" s="1">
         <f t="shared" si="9"/>
-        <v>386.35359074085602</v>
+        <v>389.94215895071335</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" si="9"/>
-        <v>166.38629608875266</v>
+        <v>168.38024674062723</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="9"/>
-        <v>1.1671016866262218</v>
+        <v>1.1750847388551848</v>
       </c>
       <c r="AH19" s="1">
         <f t="shared" si="9"/>
-        <v>7.1893908931776451</v>
+        <v>7.1036590776480368</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="9"/>
-        <v>16.745333311244082</v>
+        <v>17.143611092703402</v>
       </c>
     </row>
-    <row r="22" spans="2:35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:35" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C4:H4"/>
